--- a/biology/Médecine/Galéanthropie/Galéanthropie.xlsx
+++ b/biology/Médecine/Galéanthropie/Galéanthropie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gal%C3%A9anthropie</t>
+          <t>Galéanthropie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La galéanthropie désigne la transformation, réelle ou supposée, d'un être humain en chat. Parfois nommés ailuranthropes, les hommes et femmes-chats sont le sujet de nombreuses légendes, ainsi que de films et d'œuvres de fiction[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La galéanthropie désigne la transformation, réelle ou supposée, d'un être humain en chat. Parfois nommés ailuranthropes, les hommes et femmes-chats sont le sujet de nombreuses légendes, ainsi que de films et d'œuvres de fiction.
 D'un point de vue médical, la galéanthropie est une aliénation mentale dans laquelle le sujet se croit métamorphosé en chat. Il s'agit d'un cas de zoanthropie au même titre que la lycanthropie (en loup) ou la cynanthropie (en chien). 
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gal%C3%A9anthropie</t>
+          <t>Galéanthropie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gal%C3%A9anthropie</t>
+          <t>Galéanthropie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Galéanthropie d'un point de vue médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le psychiatre Sven Follin fait mention de ce terme dans son chapitre sur des cas cliniques de psychoses hystériques dans son livre Vivre en délirant : « Et ce n'est pas parce que les galéanthropes, zoanthropes et autres lycanthropes nous font aujourd'hui sourire dans leur désignation, que nous devons méconnaître l'étrangeté de tels états[2]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le psychiatre Sven Follin fait mention de ce terme dans son chapitre sur des cas cliniques de psychoses hystériques dans son livre Vivre en délirant : « Et ce n'est pas parce que les galéanthropes, zoanthropes et autres lycanthropes nous font aujourd'hui sourire dans leur désignation, que nous devons méconnaître l'étrangeté de tels états. »
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gal%C3%A9anthropie</t>
+          <t>Galéanthropie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Galéanthropie dans la fiction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Féline, film de 1942 (Cat People), avec Simone Simon ;
 La Malédiction des hommes-chats (The Curse of the Cat People), film de 1944 ;
